--- a/0. Dati Iniziali/PortfolioMP_Cedole.xlsx
+++ b/0. Dati Iniziali/PortfolioMP_Cedole.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PerixMonitor\0. Dati Iniziali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D7B8C2F-D53C-4E00-BBC0-AB82EFBA5620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79609035-E1DA-4BA1-88C8-43B6BA485689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="600" windowWidth="19200" windowHeight="21000" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
+    <workbookView xWindow="4820" yWindow="4930" windowWidth="28800" windowHeight="11780" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
   <si>
     <t>Descrizione Titolo</t>
   </si>
@@ -355,7 +355,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="21">
     <dxf>
       <fill>
         <patternFill>
@@ -421,6 +421,46 @@
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -578,114 +618,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border outline="0">
@@ -785,14 +717,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{144E4576-C4BF-4D57-BFB0-E7956B4D1578}" name="Table2" displayName="Table2" ref="A1:E17" totalsRowShown="0" dataDxfId="12" tableBorderDxfId="27">
-  <autoFilter ref="A1:E17" xr:uid="{144E4576-C4BF-4D57-BFB0-E7956B4D1578}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{144E4576-C4BF-4D57-BFB0-E7956B4D1578}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" dataDxfId="17" tableBorderDxfId="20">
+  <autoFilter ref="A1:E18" xr:uid="{144E4576-C4BF-4D57-BFB0-E7956B4D1578}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DDF13CAD-D240-45BF-ADB3-9429ECC21D5D}" name="ISIN" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{3FE2DB4A-D852-446E-AD71-89C234144C82}" name="Valore Cedola (EUR)" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{E0739D53-4E78-48EA-B1A3-DEB01936853E}" name="Data Flusso" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{005FC9CF-D5AA-4EDE-88BA-26D367EB9606}" name="Descrizione Titolo" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{23A2B8FF-402D-41E8-B377-3FF149703119}" name="Fees" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{DDF13CAD-D240-45BF-ADB3-9429ECC21D5D}" name="ISIN" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{3FE2DB4A-D852-446E-AD71-89C234144C82}" name="Valore Cedola (EUR)" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{E0739D53-4E78-48EA-B1A3-DEB01936853E}" name="Data Flusso" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{005FC9CF-D5AA-4EDE-88BA-26D367EB9606}" name="Descrizione Titolo" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{23A2B8FF-402D-41E8-B377-3FF149703119}" name="Fees" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1115,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840B4B52-5CB9-41B5-89C1-B1D0A0795C06}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1356,33 +1288,33 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="16">
-        <v>120.31</v>
-      </c>
-      <c r="C14" s="17">
-        <v>45384</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>3</v>
+      <c r="A14" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="14">
+        <v>15.89</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45989</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>4</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="16">
         <v>120.31</v>
       </c>
-      <c r="C15" s="7">
-        <v>45566</v>
-      </c>
-      <c r="D15" s="15" t="s">
+      <c r="C15" s="17">
+        <v>45384</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="9" t="s">
@@ -1397,7 +1329,7 @@
         <v>120.31</v>
       </c>
       <c r="C16" s="7">
-        <v>45748</v>
+        <v>45566</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>3</v>
@@ -1407,58 +1339,75 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>120.31</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="7">
+        <v>45748</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="16">
+        <v>120.31</v>
+      </c>
+      <c r="C18" s="17">
         <v>45931</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E18" s="20" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D13">
-    <cfRule type="containsText" dxfId="21" priority="8" stopIfTrue="1" operator="containsText" text="BTP">
+  <conditionalFormatting sqref="D2:D14">
+    <cfRule type="containsText" dxfId="8" priority="8" stopIfTrue="1" operator="containsText" text="BTP">
       <formula>NOT(ISERROR(SEARCH("BTP",D2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
       <formula>IF(AND(ISNUMBER(SEARCH("H2O", D2)), ISNUMBER(SEARCH("SP", D2))), 1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E17">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="FEE">
+  <conditionalFormatting sqref="E2:E18">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="FEE">
       <formula>NOT(ISERROR(SEARCH("FEE",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="4" operator="containsText" text="DIIVIDENDI">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="DIIVIDENDI">
       <formula>NOT(ISERROR(SEARCH("DIIVIDENDI",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="CEDOLE">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="CEDOLE">
       <formula>NOT(ISERROR(SEARCH("CEDOLE",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="ACQUISTO">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="ACQUISTO">
       <formula>NOT(ISERROR(SEARCH("ACQUISTO",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="VENDITA">
+    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="VENDITA">
       <formula>NOT(ISERROR(SEARCH("VENDITA",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D17">
+  <conditionalFormatting sqref="D15:D18">
     <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="BTP">
-      <formula>NOT(ISERROR(SEARCH("BTP",D14)))</formula>
+      <formula>NOT(ISERROR(SEARCH("BTP",D15)))</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>IF(AND(ISNUMBER(SEARCH("H2O", D14)), ISNUMBER(SEARCH("SP", D14))), 1,0)</formula>
+      <formula>IF(AND(ISNUMBER(SEARCH("H2O", D15)), ISNUMBER(SEARCH("SP", D15))), 1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E17" xr:uid="{A1652940-910A-41A3-B33A-F0C0147E166B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E18" xr:uid="{A1652940-910A-41A3-B33A-F0C0147E166B}">
       <formula1>LabTipoEventi</formula1>
     </dataValidation>
   </dataValidations>

--- a/0. Dati Iniziali/PortfolioMP_Cedole.xlsx
+++ b/0. Dati Iniziali/PortfolioMP_Cedole.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\PerixMonitor\0. Dati Iniziali\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79609035-E1DA-4BA1-88C8-43B6BA485689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0ECD5B00-291C-49A3-BB6E-52A346F20A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4820" yWindow="4930" windowWidth="28800" windowHeight="11780" xr2:uid="{461EA0C3-CC98-4DCD-BC5C-C997A9959903}"/>
+    <workbookView xWindow="12360" yWindow="2660" windowWidth="28800" windowHeight="15460" xr2:uid="{9D257F40-C2B9-4C7A-9E02-266CD7C5EABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="LabTipoEventi">[1]!TipoEventi[Eventi]</definedName>
-  </definedNames>
-  <calcPr calcId="191029" calcMode="manual"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,90 +35,57 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Mauro Periccioli</author>
-  </authors>
-  <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D78C9E56-5A6E-47E9-BA04-211B82D83F3E}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>In Euro</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="13">
   <si>
+    <t>ISIN</t>
+  </si>
+  <si>
+    <t>Valore Cedola (EUR)</t>
+  </si>
+  <si>
+    <t>Data Flusso</t>
+  </si>
+  <si>
     <t>Descrizione Titolo</t>
   </si>
   <si>
-    <t>ISIN</t>
+    <t>Fees</t>
+  </si>
+  <si>
+    <t>IT0005419848</t>
   </si>
   <si>
     <t>BTP FEBBR 26 0.5%</t>
   </si>
   <si>
+    <t>Fee</t>
+  </si>
+  <si>
+    <t>Cedole</t>
+  </si>
+  <si>
+    <t>IE00BYXVGZ48</t>
+  </si>
+  <si>
+    <t>FID GLO QLTY USD EUR</t>
+  </si>
+  <si>
+    <t>IT0005484552</t>
+  </si>
+  <si>
     <t>BTP01.03.22-01.04.27</t>
-  </si>
-  <si>
-    <t>FID GLO QLTY USD EUR</t>
-  </si>
-  <si>
-    <t>IT0005419848</t>
-  </si>
-  <si>
-    <t>IT0005484552</t>
-  </si>
-  <si>
-    <t>IE00BYXVGZ48</t>
-  </si>
-  <si>
-    <t>Valore Cedola (EUR)</t>
-  </si>
-  <si>
-    <t>Fees</t>
-  </si>
-  <si>
-    <t>Fee</t>
-  </si>
-  <si>
-    <t>Cedole</t>
-  </si>
-  <si>
-    <t>Data Flusso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,16 +103,11 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -160,16 +116,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,8 +136,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor theme="9" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -219,33 +173,11 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="9"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color theme="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -265,14 +197,18 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -285,96 +221,102 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="9"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="9"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <font>
         <b/>
@@ -443,192 +385,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00_ ;[Red]\-0.00\ "/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -640,94 +396,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Portafoglio"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="History_Totals"/>
-      <sheetName val="History_ISIN"/>
-      <sheetName val="AllFlux"/>
-      <sheetName val="Inflation"/>
-      <sheetName val="Minus"/>
-      <sheetName val="0002"/>
-      <sheetName val="0003"/>
-      <sheetName val="0004"/>
-      <sheetName val="0005"/>
-      <sheetName val="0006"/>
-      <sheetName val="0007"/>
-      <sheetName val="0016"/>
-      <sheetName val="0008"/>
-      <sheetName val="0009"/>
-      <sheetName val="0010"/>
-      <sheetName val="0011"/>
-      <sheetName val="0012"/>
-      <sheetName val="0013"/>
-      <sheetName val="0015"/>
-      <sheetName val="0017"/>
-      <sheetName val="0014"/>
-      <sheetName val="0018"/>
-      <sheetName val="9999"/>
-      <sheetName val="0001"/>
-      <sheetName val="Simul1"/>
-      <sheetName val="Simul1 1.1"/>
-      <sheetName val="Simul2"/>
-      <sheetName val="Costanti"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{144E4576-C4BF-4D57-BFB0-E7956B4D1578}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0" dataDxfId="17" tableBorderDxfId="20">
-  <autoFilter ref="A1:E18" xr:uid="{144E4576-C4BF-4D57-BFB0-E7956B4D1578}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{DDF13CAD-D240-45BF-ADB3-9429ECC21D5D}" name="ISIN" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{3FE2DB4A-D852-446E-AD71-89C234144C82}" name="Valore Cedola (EUR)" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{E0739D53-4E78-48EA-B1A3-DEB01936853E}" name="Data Flusso" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{005FC9CF-D5AA-4EDE-88BA-26D367EB9606}" name="Descrizione Titolo" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{23A2B8FF-402D-41E8-B377-3FF149703119}" name="Fees" dataDxfId="18"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1046,375 +714,354 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840B4B52-5CB9-41B5-89C1-B1D0A0795C06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCD9D8E9-3BF4-437C-A8E2-D89965693A86}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.90625" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" customWidth="1"/>
-    <col min="6" max="6" width="22.6328125" customWidth="1"/>
-    <col min="7" max="7" width="16.54296875" customWidth="1"/>
-    <col min="8" max="8" width="23.08984375" customWidth="1"/>
-    <col min="9" max="9" width="21.90625" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" customWidth="1"/>
+    <col min="4" max="4" width="25.1796875" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>9</v>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="6">
         <v>-33.340000000000003</v>
       </c>
       <c r="C2" s="7">
         <v>45002</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="11">
         <v>10.66</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="12">
         <v>45002</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>11</v>
+      <c r="D3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="6">
         <v>43.75</v>
       </c>
       <c r="C4" s="7">
         <v>45139</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="15">
         <v>35.85</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="12">
         <v>45323</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>11</v>
+      <c r="D5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="6">
         <v>7.9</v>
       </c>
       <c r="C6" s="7">
         <v>45362</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="15">
         <v>43.75</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="12">
         <v>45505</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
+      <c r="D7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="6">
         <v>43.75</v>
       </c>
       <c r="C8" s="7">
         <v>45691</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="15">
         <v>43.75</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="12">
         <v>45870</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>11</v>
+      <c r="D9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="6">
         <v>-3.3500000000021828</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="16">
         <v>46000</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="15">
+        <v>14.97</v>
+      </c>
+      <c r="C11" s="17">
+        <v>45716</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="13">
-        <v>14.97</v>
-      </c>
-      <c r="C11" s="10">
-        <v>45716</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>11</v>
+      <c r="E11" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="14">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18">
         <v>23.66</v>
       </c>
       <c r="C12" s="7">
         <v>45799</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>4</v>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="14">
+      <c r="A13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="19">
         <v>16.8</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="12">
         <v>45897</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>11</v>
+      <c r="D13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="14">
+      <c r="A14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="18">
         <v>15.89</v>
       </c>
       <c r="C14" s="7">
         <v>45989</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>4</v>
+      <c r="D14" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="16">
+      <c r="B15" s="21">
         <v>120.31</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="22">
         <v>45384</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="14">
+      <c r="B16" s="18">
         <v>120.31</v>
       </c>
       <c r="C16" s="7">
         <v>45566</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>3</v>
+      <c r="D16" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="14">
+      <c r="B17" s="19">
         <v>120.31</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="12">
         <v>45748</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="16">
+      <c r="B18" s="24">
         <v>120.31</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="25">
         <v>45931</v>
       </c>
-      <c r="D18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>11</v>
+      <c r="D18" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D2:D14">
-    <cfRule type="containsText" dxfId="8" priority="8" stopIfTrue="1" operator="containsText" text="BTP">
+  <conditionalFormatting sqref="D2:D18">
+    <cfRule type="containsText" dxfId="6" priority="1" stopIfTrue="1" operator="containsText" text="BTP">
       <formula>NOT(ISERROR(SEARCH("BTP",D2)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
       <formula>IF(AND(ISNUMBER(SEARCH("H2O", D2)), ISNUMBER(SEARCH("SP", D2))), 1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E18">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="FEE">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="FEE">
       <formula>NOT(ISERROR(SEARCH("FEE",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="DIIVIDENDI">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="DIIVIDENDI">
       <formula>NOT(ISERROR(SEARCH("DIIVIDENDI",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="CEDOLE">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="CEDOLE">
       <formula>NOT(ISERROR(SEARCH("CEDOLE",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="ACQUISTO">
+    <cfRule type="containsText" dxfId="1" priority="6" operator="containsText" text="ACQUISTO">
       <formula>NOT(ISERROR(SEARCH("ACQUISTO",E2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="VENDITA">
+    <cfRule type="containsText" dxfId="0" priority="7" operator="containsText" text="VENDITA">
       <formula>NOT(ISERROR(SEARCH("VENDITA",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D18">
-    <cfRule type="containsText" dxfId="1" priority="1" stopIfTrue="1" operator="containsText" text="BTP">
-      <formula>NOT(ISERROR(SEARCH("BTP",D15)))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>IF(AND(ISNUMBER(SEARCH("H2O", D15)), ISNUMBER(SEARCH("SP", D15))), 1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E18" xr:uid="{A1652940-910A-41A3-B33A-F0C0147E166B}">
-      <formula1>LabTipoEventi</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>